--- a/embedded_hcl_on_ice_single_water_to_hcl_ccsd.xlsx
+++ b/embedded_hcl_on_ice_single_water_to_hcl_ccsd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/github_thesis_graph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7BCC05-CB67-BF49-89A3-D5AA0C7E2B80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48598FFC-D346-8941-B6B1-95DAD93BB6C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="5860" windowWidth="30860" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="25600" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,453 +391,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
-  <dimension ref="B4:R29"/>
+  <dimension ref="A4:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="R4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2836.781661</v>
+      </c>
       <c r="B5">
-        <v>2836.781661</v>
-      </c>
-      <c r="F5">
         <v>279.3367834</v>
       </c>
-      <c r="J5">
+      <c r="C5">
         <v>208.1643292</v>
       </c>
-      <c r="N5">
+      <c r="D5">
         <v>208.79364169999999</v>
       </c>
-      <c r="R5">
+      <c r="E5">
         <v>207.135107</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2837.4472879999998</v>
+      </c>
       <c r="B6">
-        <v>2837.4472879999998</v>
-      </c>
-      <c r="F6">
         <v>280.02594900000003</v>
       </c>
-      <c r="J6">
+      <c r="C6">
         <v>208.19996230000001</v>
       </c>
-      <c r="N6">
+      <c r="D6">
         <v>209.4800372</v>
       </c>
-      <c r="R6">
+      <c r="E6">
         <v>207.7828504</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2837.2917830000001</v>
+      </c>
       <c r="B7">
-        <v>2837.2917830000001</v>
-      </c>
-      <c r="F7">
         <v>279.85309660000001</v>
       </c>
-      <c r="J7">
+      <c r="C7">
         <v>208.23559539999999</v>
       </c>
-      <c r="N7">
+      <c r="D7">
         <v>209.30718859999999</v>
       </c>
-      <c r="R7">
+      <c r="E7">
         <v>207.60975769999999</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2837.6964250000001</v>
+      </c>
       <c r="B8">
-        <v>2837.6964250000001</v>
-      </c>
-      <c r="F8">
         <v>280.25247680000001</v>
       </c>
-      <c r="J8">
+      <c r="C8">
         <v>208.27122840000001</v>
       </c>
-      <c r="N8">
+      <c r="D8">
         <v>209.70535570000001</v>
       </c>
-      <c r="R8">
+      <c r="E8">
         <v>208.0075707</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2837.9460640000002</v>
+      </c>
       <c r="B9">
-        <v>2837.9460640000002</v>
-      </c>
-      <c r="F9">
         <v>280.52291659999997</v>
       </c>
-      <c r="J9">
+      <c r="C9">
         <v>208.3068615</v>
       </c>
-      <c r="N9">
+      <c r="D9">
         <v>209.9797743</v>
       </c>
-      <c r="R9">
+      <c r="E9">
         <v>208.28263720000001</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2836.605665</v>
+      </c>
       <c r="B10">
-        <v>2836.605665</v>
-      </c>
-      <c r="F10">
         <v>279.16876769999999</v>
       </c>
-      <c r="J10">
+      <c r="C10">
         <v>208.34249460000001</v>
       </c>
-      <c r="N10">
+      <c r="D10">
         <v>208.62701050000001</v>
       </c>
-      <c r="R10">
+      <c r="E10">
         <v>206.9298876</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2837.322126</v>
+      </c>
       <c r="B11">
-        <v>2837.322126</v>
-      </c>
-      <c r="F11">
         <v>279.87766190000002</v>
       </c>
-      <c r="J11">
+      <c r="C11">
         <v>208.3781276</v>
       </c>
-      <c r="N11">
+      <c r="D11">
         <v>209.3314254</v>
       </c>
-      <c r="R11">
+      <c r="E11">
         <v>207.63381699999999</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2838.059749</v>
+      </c>
       <c r="B12">
-        <v>2838.059749</v>
-      </c>
-      <c r="F12">
         <v>280.62525090000003</v>
       </c>
-      <c r="J12">
+      <c r="C12">
         <v>208.41376070000001</v>
       </c>
-      <c r="N12">
+      <c r="D12">
         <v>210.07840250000001</v>
       </c>
-      <c r="R12">
+      <c r="E12">
         <v>208.3806232</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2837.062101</v>
+      </c>
       <c r="B13">
-        <v>2837.062101</v>
-      </c>
-      <c r="F13">
         <v>279.62418789999998</v>
       </c>
-      <c r="J13">
+      <c r="C13">
         <v>208.4493938</v>
       </c>
-      <c r="N13">
+      <c r="D13">
         <v>209.07999770000001</v>
       </c>
-      <c r="R13">
+      <c r="E13">
         <v>207.3825659</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2837.3659309999998</v>
+      </c>
       <c r="B14">
-        <v>2837.3659309999998</v>
-      </c>
-      <c r="F14">
         <v>279.93157880000001</v>
       </c>
-      <c r="J14">
+      <c r="C14">
         <v>208.48502680000001</v>
       </c>
-      <c r="N14">
+      <c r="D14">
         <v>209.3914077</v>
       </c>
-      <c r="R14">
+      <c r="E14">
         <v>207.69460720000001</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2837.7107099999998</v>
+      </c>
       <c r="B15">
-        <v>2837.7107099999998</v>
-      </c>
-      <c r="F15">
         <v>280.28424589999997</v>
       </c>
-      <c r="J15">
+      <c r="C15">
         <v>208.5206599</v>
       </c>
-      <c r="N15">
+      <c r="D15">
         <v>209.73965029999999</v>
       </c>
-      <c r="R15">
+      <c r="E15">
         <v>208.04255319999999</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2836.920294</v>
+      </c>
       <c r="B16">
-        <v>2836.920294</v>
-      </c>
-      <c r="F16">
         <v>279.48717859999999</v>
       </c>
-      <c r="J16">
+      <c r="C16">
         <v>208.55629300000001</v>
       </c>
-      <c r="N16">
+      <c r="D16">
         <v>208.94158920000001</v>
       </c>
-      <c r="R16">
+      <c r="E16">
         <v>207.24427220000001</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2836.9271290000001</v>
+      </c>
       <c r="B17">
-        <v>2836.9271290000001</v>
-      </c>
-      <c r="F17">
         <v>279.49034619999998</v>
       </c>
-      <c r="J17">
+      <c r="C17">
         <v>208.591926</v>
       </c>
-      <c r="N17">
+      <c r="D17">
         <v>208.94888610000001</v>
       </c>
-      <c r="R17">
+      <c r="E17">
         <v>207.2518259</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2837.7698580000001</v>
+      </c>
       <c r="B18">
-        <v>2837.7698580000001</v>
-      </c>
-      <c r="F18">
         <v>280.36041110000002</v>
       </c>
-      <c r="J18">
+      <c r="C18">
         <v>208.62755910000001</v>
       </c>
-      <c r="N18">
+      <c r="D18">
         <v>209.8136982</v>
       </c>
-      <c r="R18">
+      <c r="E18">
         <v>208.1164966</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2837.6752179999999</v>
+      </c>
       <c r="B19">
-        <v>2837.6752179999999</v>
-      </c>
-      <c r="F19">
         <v>280.19427159999998</v>
       </c>
-      <c r="J19">
+      <c r="C19">
         <v>208.6631922</v>
       </c>
-      <c r="N19">
+      <c r="D19">
         <v>209.6407394</v>
       </c>
-      <c r="R19">
+      <c r="E19">
         <v>207.94159529999999</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2837.1152910000001</v>
+      </c>
       <c r="B20">
-        <v>2837.1152910000001</v>
-      </c>
-      <c r="F20">
         <v>279.6770482</v>
       </c>
-      <c r="J20">
+      <c r="C20">
         <v>208.69882530000001</v>
       </c>
-      <c r="N20">
+      <c r="D20">
         <v>209.13529130000001</v>
       </c>
-      <c r="R20">
+      <c r="E20">
         <v>207.4382181</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2837.8752370000002</v>
+      </c>
       <c r="B21">
-        <v>2837.8752370000002</v>
-      </c>
-      <c r="F21">
         <v>279.87766190000002</v>
       </c>
-      <c r="J21">
+      <c r="C21">
         <v>208.7344583</v>
       </c>
-      <c r="N21">
+      <c r="D21">
         <v>209.9727958</v>
       </c>
-      <c r="R21">
+      <c r="E21">
         <v>208.27439889999999</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2836.9386249999998</v>
+      </c>
       <c r="B22">
-        <v>2836.9386249999998</v>
-      </c>
-      <c r="F22">
         <v>279.50439010000002</v>
       </c>
-      <c r="J22">
+      <c r="C22">
         <v>208.77009140000001</v>
       </c>
-      <c r="N22">
+      <c r="D22">
         <v>208.9638095</v>
       </c>
-      <c r="R22">
+      <c r="E22">
         <v>207.26698540000001</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2837.0565790000001</v>
+      </c>
       <c r="B23">
-        <v>2837.0565790000001</v>
-      </c>
-      <c r="F23">
         <v>279.6265234</v>
       </c>
-      <c r="J23">
+      <c r="C23">
         <v>208.8057245</v>
       </c>
-      <c r="N23">
+      <c r="D23">
         <v>209.08161870000001</v>
       </c>
-      <c r="R23">
+      <c r="E23">
         <v>207.38437339999999</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2837.2821720000002</v>
+      </c>
       <c r="B24">
-        <v>2837.2821720000002</v>
-      </c>
-      <c r="F24">
         <v>279.8408786</v>
       </c>
-      <c r="J24">
+      <c r="C24">
         <v>208.84135749999999</v>
       </c>
-      <c r="N24">
+      <c r="D24">
         <v>209.2924702</v>
       </c>
-      <c r="R24">
+      <c r="E24">
         <v>207.59435439999999</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2837.7798710000002</v>
+      </c>
       <c r="B25">
-        <v>2837.7798710000002</v>
-      </c>
-      <c r="F25">
         <v>280.33292640000002</v>
       </c>
-      <c r="J25">
+      <c r="C25">
         <v>208.8769906</v>
       </c>
-      <c r="N25">
+      <c r="D25">
         <v>209.78764129999999</v>
       </c>
-      <c r="R25">
+      <c r="E25">
         <v>208.08984100000001</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2837.766114</v>
+      </c>
       <c r="B26">
-        <v>2837.766114</v>
-      </c>
-      <c r="F26">
         <v>280.31944249999998</v>
       </c>
-      <c r="J26">
+      <c r="C26">
         <v>208.91262370000001</v>
       </c>
-      <c r="N26">
+      <c r="D26">
         <v>209.770771</v>
       </c>
-      <c r="R26">
+      <c r="E26">
         <v>208.0727258</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2838.0650949999999</v>
+      </c>
       <c r="B27">
-        <v>2838.0650949999999</v>
-      </c>
-      <c r="F27">
         <v>280.62423239999998</v>
       </c>
-      <c r="J27">
+      <c r="C27">
         <v>208.9482567</v>
       </c>
-      <c r="N27">
+      <c r="D27">
         <v>210.0779872</v>
       </c>
-      <c r="R27">
+      <c r="E27">
         <v>208.38021040000001</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2837.202123</v>
+      </c>
       <c r="B28">
-        <v>2837.202123</v>
-      </c>
-      <c r="F28">
         <v>279.73534999999998</v>
       </c>
-      <c r="J28">
+      <c r="C28">
         <v>208.98388979999999</v>
       </c>
-      <c r="N28">
+      <c r="D28">
         <v>209.1837108</v>
       </c>
-      <c r="R28">
+      <c r="E28">
         <v>207.48494719999999</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2837.8747159999998</v>
+      </c>
       <c r="B29">
-        <v>2837.8747159999998</v>
-      </c>
-      <c r="F29">
         <v>280.42114170000002</v>
       </c>
-      <c r="J29">
+      <c r="C29">
         <v>209.0195229</v>
       </c>
-      <c r="N29">
+      <c r="D29">
         <v>209.87358040000001</v>
       </c>
-      <c r="R29">
+      <c r="E29">
         <v>208.17560040000001</v>
       </c>
     </row>

--- a/embedded_hcl_on_ice_single_water_to_hcl_ccsd.xlsx
+++ b/embedded_hcl_on_ice_single_water_to_hcl_ccsd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48598FFC-D346-8941-B6B1-95DAD93BB6C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75649E39-1709-AD43-9553-8CF77F3C2714}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="25600" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
+    <workbookView xWindow="10580" yWindow="3000" windowWidth="15060" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Embedded_one_water_1s_hcl_acv3z_x2camf</t>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2cmmf_gaunt_1s</t>
   </si>
   <si>
-    <t>Embedded_one_water_2s_hcl_acv3z_x2camf</t>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2cmmf_gaunt_2s</t>
   </si>
   <si>
-    <t>Embedded_one_water_p_hcl_acv3z_x2camf</t>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2cmmf_gaunt_p</t>
   </si>
   <si>
-    <t>Embedded_one_water_p12_hcl_acv3z_x2camf</t>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2cmmf_gaunt_p12</t>
   </si>
   <si>
-    <t>Embedded_one_water_p32_hcl_acv3z_x2camf</t>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2cmmf_gaunt_p32</t>
   </si>
 </sst>
 </file>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
   <dimension ref="A4:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,427 +418,427 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2836.781661</v>
+        <v>2835.722898</v>
       </c>
       <c r="B5">
-        <v>279.3367834</v>
+        <v>279.31742000000003</v>
       </c>
       <c r="C5">
-        <v>208.1643292</v>
+        <v>207.84923409999999</v>
       </c>
       <c r="D5">
-        <v>208.79364169999999</v>
+        <v>208.64415099999999</v>
       </c>
       <c r="E5">
-        <v>207.135107</v>
+        <v>207.05431730000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2837.4472879999998</v>
+        <v>2837.0320609999999</v>
       </c>
       <c r="B6">
-        <v>280.02594900000003</v>
+        <v>280.61808159999998</v>
       </c>
       <c r="C6">
-        <v>208.19996230000001</v>
+        <v>209.14670659999999</v>
       </c>
       <c r="D6">
-        <v>209.4800372</v>
+        <v>209.94021280000001</v>
       </c>
       <c r="E6">
-        <v>207.7828504</v>
+        <v>208.3532003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2837.2917830000001</v>
+        <v>2836.4974609999999</v>
       </c>
       <c r="B7">
-        <v>279.85309660000001</v>
+        <v>280.11665440000002</v>
       </c>
       <c r="C7">
-        <v>208.23559539999999</v>
+        <v>208.6086186</v>
       </c>
       <c r="D7">
-        <v>209.30718859999999</v>
+        <v>209.44469480000001</v>
       </c>
       <c r="E7">
-        <v>207.60975769999999</v>
+        <v>207.7725423</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2837.6964250000001</v>
+        <v>2836.735326</v>
       </c>
       <c r="B8">
-        <v>280.25247680000001</v>
+        <v>280.35605709999999</v>
       </c>
       <c r="C8">
-        <v>208.27122840000001</v>
+        <v>208.89027619999999</v>
       </c>
       <c r="D8">
-        <v>209.70535570000001</v>
+        <v>209.68442150000001</v>
       </c>
       <c r="E8">
-        <v>208.0075707</v>
+        <v>208.09613089999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2837.9460640000002</v>
+        <v>2835.861887</v>
       </c>
       <c r="B9">
-        <v>280.52291659999997</v>
+        <v>279.44528559999998</v>
       </c>
       <c r="C9">
-        <v>208.3068615</v>
+        <v>207.97732310000001</v>
       </c>
       <c r="D9">
-        <v>209.9797743</v>
+        <v>208.7722124</v>
       </c>
       <c r="E9">
-        <v>208.28263720000001</v>
+        <v>207.18243369999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2836.605665</v>
+        <v>2835.4811140000002</v>
       </c>
       <c r="B10">
-        <v>279.16876769999999</v>
+        <v>279.0569041</v>
       </c>
       <c r="C10">
-        <v>208.34249460000001</v>
+        <v>207.58632009999999</v>
       </c>
       <c r="D10">
-        <v>208.62701050000001</v>
+        <v>208.38151769999999</v>
       </c>
       <c r="E10">
-        <v>206.9298876</v>
+        <v>206.79112240000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2837.322126</v>
+        <v>2836.2731789999998</v>
       </c>
       <c r="B11">
-        <v>279.87766190000002</v>
+        <v>279.86523570000003</v>
       </c>
       <c r="C11">
-        <v>208.3781276</v>
+        <v>208.3952386</v>
       </c>
       <c r="D11">
-        <v>209.3314254</v>
+        <v>209.1897688</v>
       </c>
       <c r="E11">
-        <v>207.63381699999999</v>
+        <v>207.6007084</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2838.059749</v>
+        <v>2836.585337</v>
       </c>
       <c r="B12">
-        <v>280.62525090000003</v>
+        <v>279.8691647</v>
       </c>
       <c r="C12">
-        <v>208.41376070000001</v>
+        <v>208.3450689</v>
       </c>
       <c r="D12">
-        <v>210.07840250000001</v>
+        <v>209.19425749999999</v>
       </c>
       <c r="E12">
-        <v>208.3806232</v>
+        <v>207.49588019999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2837.062101</v>
+        <v>2835.8806730000001</v>
       </c>
       <c r="B13">
-        <v>279.62418789999998</v>
+        <v>279.43495439999998</v>
       </c>
       <c r="C13">
-        <v>208.4493938</v>
+        <v>207.96611300000001</v>
       </c>
       <c r="D13">
-        <v>209.07999770000001</v>
+        <v>208.76008100000001</v>
       </c>
       <c r="E13">
-        <v>207.3825659</v>
+        <v>207.172145</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2837.3659309999998</v>
+        <v>2835.885436</v>
       </c>
       <c r="B14">
-        <v>279.93157880000001</v>
+        <v>279.06977189999998</v>
       </c>
       <c r="C14">
-        <v>208.48502680000001</v>
+        <v>207.57150419999999</v>
       </c>
       <c r="D14">
-        <v>209.3914077</v>
+        <v>208.3682709</v>
       </c>
       <c r="E14">
-        <v>207.69460720000001</v>
+        <v>206.77473760000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2837.7107099999998</v>
+        <v>2836.4524649999998</v>
       </c>
       <c r="B15">
-        <v>280.28424589999997</v>
+        <v>279.86342999999999</v>
       </c>
       <c r="C15">
-        <v>208.5206599</v>
+        <v>208.37636670000001</v>
       </c>
       <c r="D15">
-        <v>209.73965029999999</v>
+        <v>209.16959259999999</v>
       </c>
       <c r="E15">
-        <v>208.04255319999999</v>
+        <v>207.5831407</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2836.920294</v>
+        <v>2835.8677990000001</v>
       </c>
       <c r="B16">
-        <v>279.48717859999999</v>
+        <v>279.47167050000002</v>
       </c>
       <c r="C16">
-        <v>208.55629300000001</v>
+        <v>208.00170399999999</v>
       </c>
       <c r="D16">
-        <v>208.94158920000001</v>
+        <v>208.7965954</v>
       </c>
       <c r="E16">
-        <v>207.24427220000001</v>
+        <v>207.20681260000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2836.9271290000001</v>
+        <v>2835.4768389999999</v>
       </c>
       <c r="B17">
-        <v>279.49034619999998</v>
+        <v>279.0018867</v>
       </c>
       <c r="C17">
-        <v>208.591926</v>
+        <v>207.5248689</v>
       </c>
       <c r="D17">
-        <v>208.94888610000001</v>
+        <v>208.32091610000001</v>
       </c>
       <c r="E17">
-        <v>207.2518259</v>
+        <v>206.7288217</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2837.7698580000001</v>
+        <v>2836.7819749999999</v>
       </c>
       <c r="B18">
-        <v>280.36041110000002</v>
+        <v>279.78940490000002</v>
       </c>
       <c r="C18">
-        <v>208.62755910000001</v>
+        <v>208.23827890000001</v>
       </c>
       <c r="D18">
-        <v>209.8136982</v>
+        <v>209.06909920000001</v>
       </c>
       <c r="E18">
-        <v>208.1164966</v>
+        <v>207.40745860000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2837.6752179999999</v>
+        <v>2836.2247940000002</v>
       </c>
       <c r="B19">
-        <v>280.19427159999998</v>
+        <v>279.89530660000003</v>
       </c>
       <c r="C19">
-        <v>208.6631922</v>
+        <v>208.4372237</v>
       </c>
       <c r="D19">
-        <v>209.6407394</v>
+        <v>209.22725080000001</v>
       </c>
       <c r="E19">
-        <v>207.94159529999999</v>
+        <v>207.64719650000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2837.1152910000001</v>
+        <v>2836.0603169999999</v>
       </c>
       <c r="B20">
-        <v>279.6770482</v>
+        <v>279.66160000000002</v>
       </c>
       <c r="C20">
-        <v>208.69882530000001</v>
+        <v>208.19399000000001</v>
       </c>
       <c r="D20">
-        <v>209.13529130000001</v>
+        <v>208.98961259999999</v>
       </c>
       <c r="E20">
-        <v>207.4382181</v>
+        <v>207.39836740000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2837.8752370000002</v>
+        <v>2836.8229759999999</v>
       </c>
       <c r="B21">
-        <v>279.87766190000002</v>
+        <v>280.5101568</v>
       </c>
       <c r="C21">
-        <v>208.7344583</v>
+        <v>209.0386709</v>
       </c>
       <c r="D21">
-        <v>209.9727958</v>
+        <v>209.82999459999999</v>
       </c>
       <c r="E21">
-        <v>208.27439889999999</v>
+        <v>208.24734710000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2836.9386249999998</v>
+        <v>2835.802576</v>
       </c>
       <c r="B22">
-        <v>279.50439010000002</v>
+        <v>279.45764780000002</v>
       </c>
       <c r="C22">
-        <v>208.77009140000001</v>
+        <v>207.969165</v>
       </c>
       <c r="D22">
-        <v>208.9638095</v>
+        <v>208.8005508</v>
       </c>
       <c r="E22">
-        <v>207.26698540000001</v>
+        <v>207.13777909999999</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2837.0565790000001</v>
+        <v>2837.3309060000001</v>
       </c>
       <c r="B23">
-        <v>279.6265234</v>
+        <v>280.7373771</v>
       </c>
       <c r="C23">
-        <v>208.8057245</v>
+        <v>209.27457129999999</v>
       </c>
       <c r="D23">
-        <v>209.08161870000001</v>
+        <v>210.0655654</v>
       </c>
       <c r="E23">
-        <v>207.38437339999999</v>
+        <v>208.48357720000001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2837.2821720000002</v>
+        <v>2836.7520639999998</v>
       </c>
       <c r="B24">
-        <v>279.8408786</v>
+        <v>281.07206309999998</v>
       </c>
       <c r="C24">
-        <v>208.84135749999999</v>
+        <v>209.56424229999999</v>
       </c>
       <c r="D24">
-        <v>209.2924702</v>
+        <v>210.41761260000001</v>
       </c>
       <c r="E24">
-        <v>207.59435439999999</v>
+        <v>208.71087209999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2837.7798710000002</v>
+        <v>2836.9709750000002</v>
       </c>
       <c r="B25">
-        <v>280.33292640000002</v>
+        <v>280.56240600000001</v>
       </c>
       <c r="C25">
-        <v>208.8769906</v>
+        <v>209.09247830000001</v>
       </c>
       <c r="D25">
-        <v>209.78764129999999</v>
+        <v>209.88676330000001</v>
       </c>
       <c r="E25">
-        <v>208.08984100000001</v>
+        <v>208.29819330000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2837.766114</v>
+        <v>2836.8381410000002</v>
       </c>
       <c r="B26">
-        <v>280.31944249999998</v>
+        <v>280.40335720000002</v>
       </c>
       <c r="C26">
-        <v>208.91262370000001</v>
+        <v>208.92390929999999</v>
       </c>
       <c r="D26">
-        <v>209.770771</v>
+        <v>209.72300530000001</v>
       </c>
       <c r="E26">
-        <v>208.0727258</v>
+        <v>208.12481320000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2838.0650949999999</v>
+        <v>2837.3276329999999</v>
       </c>
       <c r="B27">
-        <v>280.62423239999998</v>
+        <v>280.92740049999998</v>
       </c>
       <c r="C27">
-        <v>208.9482567</v>
+        <v>209.4605487</v>
       </c>
       <c r="D27">
-        <v>210.0779872</v>
+        <v>210.2577575</v>
       </c>
       <c r="E27">
-        <v>208.38021040000001</v>
+        <v>208.66333990000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2837.202123</v>
+        <v>2836.1406160000001</v>
       </c>
       <c r="B28">
-        <v>279.73534999999998</v>
+        <v>279.70667989999998</v>
       </c>
       <c r="C28">
-        <v>208.98388979999999</v>
+        <v>208.2330552</v>
       </c>
       <c r="D28">
-        <v>209.1837108</v>
+        <v>209.025927</v>
       </c>
       <c r="E28">
-        <v>207.48494719999999</v>
+        <v>207.4401834</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2837.8747159999998</v>
+        <v>2837.2534780000001</v>
       </c>
       <c r="B29">
-        <v>280.42114170000002</v>
+        <v>281.00419319999997</v>
       </c>
       <c r="C29">
-        <v>209.0195229</v>
+        <v>209.54427569999999</v>
       </c>
       <c r="D29">
-        <v>209.87358040000001</v>
+        <v>210.33883950000001</v>
       </c>
       <c r="E29">
-        <v>208.17560040000001</v>
+        <v>208.74971189999999</v>
       </c>
     </row>
   </sheetData>
